--- a/ControlledExperimentalData.xlsx
+++ b/ControlledExperimentalData.xlsx
@@ -79,11 +79,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>kenny:ROOT</t>
+          <t>:ROOT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="3">
